--- a/Assets/Excels/Games/DCG/DCGQuestion.xlsx
+++ b/Assets/Excels/Games/DCG/DCGQuestion.xlsx
@@ -376,7 +376,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -403,16 +403,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -420,16 +420,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -437,16 +437,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -454,16 +454,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
